--- a/results/LeNet5/FashionMNIST/K2-R1-mlp/results.xlsx
+++ b/results/LeNet5/FashionMNIST/K2-R1-mlp/results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\MyCourse(5 delayed 1)\erasure code\non-linear erasure code\results\LeNet5\FashionMNIST\K2-R1-mlp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Nonlinear-Erasure-Code\results\LeNet5\FashionMNIST\K2-R1-mlp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4938D946-2B78-4BB8-BEFD-16DF47DD1BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E87D71F4-2509-4F6A-B279-17948B9A8DD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11328" yWindow="804" windowWidth="12228" windowHeight="10524" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="21806" windowHeight="13886" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>K</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -196,7 +196,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -220,6 +220,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -504,26 +510,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="19.109375" style="1" customWidth="1"/>
-    <col min="2" max="4" width="8.88671875" style="1"/>
-    <col min="5" max="5" width="16.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="18.21875" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="19.140625" style="1" customWidth="1"/>
+    <col min="2" max="4" width="8.85546875" style="1"/>
+    <col min="5" max="5" width="16.640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="10.0703125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="67.2" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="25.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="25.85" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
@@ -549,7 +555,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B3" s="6">
         <v>2</v>
       </c>
@@ -562,7 +568,7 @@
       <c r="E3" s="3">
         <v>0.92159999999999997</v>
       </c>
-      <c r="F3" s="2" t="s">
+      <c r="F3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="G3" s="2">
@@ -576,37 +582,33 @@
         <v>0.14579999999999993</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B4" s="7"/>
       <c r="C4" s="7"/>
       <c r="D4" s="7"/>
       <c r="E4" s="3">
         <v>0.92159999999999997</v>
       </c>
-      <c r="F4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="2">
+      <c r="F4" s="7"/>
+      <c r="G4" s="9">
         <v>1</v>
       </c>
-      <c r="H4" s="3">
+      <c r="H4" s="10">
         <v>0.57550000000000001</v>
       </c>
-      <c r="I4" s="3">
+      <c r="I4" s="10">
         <f t="shared" ref="I4:I10" si="0">E4-H4</f>
         <v>0.34609999999999996</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B5" s="7"/>
       <c r="C5" s="7"/>
       <c r="D5" s="7"/>
       <c r="E5" s="3">
         <v>0.92159999999999997</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="2">
         <v>2</v>
       </c>
@@ -618,16 +620,14 @@
         <v>0.57010000000000005</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B6" s="7"/>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
       <c r="E6" s="3">
         <v>0.92159999999999997</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>7</v>
-      </c>
+      <c r="F6" s="8"/>
       <c r="G6" s="2">
         <v>3</v>
       </c>
@@ -639,14 +639,14 @@
         <v>0.8216</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B7" s="7"/>
       <c r="C7" s="7"/>
       <c r="D7" s="7"/>
       <c r="E7" s="3">
         <v>0.89129999999999998</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
       <c r="G7" s="2">
@@ -660,37 +660,33 @@
         <v>0.12619999999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="3">
         <v>0.89129999999999998</v>
       </c>
-      <c r="F8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G8" s="2">
+      <c r="F8" s="7"/>
+      <c r="G8" s="9">
         <v>1</v>
       </c>
-      <c r="H8" s="3">
+      <c r="H8" s="10">
         <v>0.55620000000000003</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>0.33509999999999995</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B9" s="7"/>
       <c r="C9" s="7"/>
       <c r="D9" s="7"/>
       <c r="E9" s="3">
         <v>0.89129999999999998</v>
       </c>
-      <c r="F9" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="2">
         <v>2</v>
       </c>
@@ -702,16 +698,14 @@
         <v>0.51929999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="B10" s="8"/>
       <c r="C10" s="8"/>
       <c r="D10" s="8"/>
       <c r="E10" s="3">
         <v>0.89129999999999998</v>
       </c>
-      <c r="F10" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="F10" s="8"/>
       <c r="G10" s="2">
         <v>3</v>
       </c>
@@ -724,10 +718,12 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="5">
     <mergeCell ref="B3:B10"/>
     <mergeCell ref="C3:C10"/>
     <mergeCell ref="D3:D10"/>
+    <mergeCell ref="F3:F6"/>
+    <mergeCell ref="F7:F10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
